--- a/src/basiskaart/fixtures/wms_kaart_database.xlsx
+++ b/src/basiskaart/fixtures/wms_kaart_database.xlsx
@@ -15,6 +15,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -70,7 +72,7 @@
     <t xml:space="preserve">punt</t>
   </si>
   <si>
-    <t xml:space="preserve">lokaalid, bgttype, plustype</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_type, plus_type</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_BAK_afval_apart_plaats</t>
@@ -115,7 +117,7 @@
     <t xml:space="preserve">BGTPLUS_KDL_keermuur</t>
   </si>
   <si>
-    <t xml:space="preserve">BGTPLUS_KST_cai-kast</t>
+    <t xml:space="preserve">BGTPLUS_KST_cai_kast</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_KST_elektrakast</t>
@@ -163,10 +165,10 @@
     <t xml:space="preserve">BGTPLUS_PAL_lichtmast</t>
   </si>
   <si>
-    <t xml:space="preserve">BGTPLUS_PUT_brandkraan_-put</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGTPLUS_PUT_inspectie-_rioolput</t>
+    <t xml:space="preserve">BGTPLUS_PUT_brandkraan__put</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGTPLUS_PUT_inspectie__rioolput</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_PUT_kolk</t>
@@ -244,7 +246,7 @@
     <t xml:space="preserve">terreindeel</t>
   </si>
   <si>
-    <t xml:space="preserve">lokaalid, bgtfysvkn, plusfyskvkn</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_fysiekvoorkomen, plus_fysiekvoorkomen</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_BTRN_bouwland</t>
@@ -376,7 +378,7 @@
     <t xml:space="preserve">wegdeel</t>
   </si>
   <si>
-    <t xml:space="preserve">lokaalid, bgtfunctie, plusfunct</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_functie, plus_functie</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_OWGL_transitie</t>
@@ -448,7 +450,7 @@
     <t xml:space="preserve">BGT_WGL_inrit</t>
   </si>
   <si>
-    <t xml:space="preserve">BGT_WGL_ov-baan</t>
+    <t xml:space="preserve">BGT_WGL_ov_baan</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_WGL_overweg</t>
@@ -758,24 +760,24 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A95" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B114" activeCellId="0" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10:I11 I111 I127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="16.469387755102"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="38.2040816326531"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="20.5204081632653"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="19.5714285714286"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="39.4183673469388"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="29.2908163265306"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="38.8775510204082"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="22.1377551020408"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="17.4132653061224"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="17.8214285714286"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="9.04591836734694"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8542510121457"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.2186234817814"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.6518218623482"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.5101214574899"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="45.4736842105263"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="62.3846153846154"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="44.9028340080972"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="25.5951417004049"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="20.1093117408907"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="10.2834008097166"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -810,7 +812,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -5268,7 +5270,7 @@
   <autoFilter ref="A1:J132"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5285,17 +5287,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="I10:I11 I111 I127 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5311,17 +5313,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="I10:I11 I111 I127 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.50510204081633"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71255060728745"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/basiskaart/fixtures/wms_kaart_database.xlsx
+++ b/src/basiskaart/fixtures/wms_kaart_database.xlsx
@@ -17,6 +17,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -117,7 +118,7 @@
     <t xml:space="preserve">BGTPLUS_KDL_keermuur</t>
   </si>
   <si>
-    <t xml:space="preserve">BGTPLUS_KST_cai_kast</t>
+    <t xml:space="preserve">BGTPLUS_KST_cai-kast</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_KST_elektrakast</t>
@@ -165,10 +166,10 @@
     <t xml:space="preserve">BGTPLUS_PAL_lichtmast</t>
   </si>
   <si>
-    <t xml:space="preserve">BGTPLUS_PUT_brandkraan__put</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BGTPLUS_PUT_inspectie__rioolput</t>
+    <t xml:space="preserve">BGTPLUS_PUT_brandkraan_-put</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BGTPLUS_PUT_inspectie-_rioolput</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_PUT_kolk</t>
@@ -450,7 +451,7 @@
     <t xml:space="preserve">BGT_WGL_inrit</t>
   </si>
   <si>
-    <t xml:space="preserve">BGT_WGL_ov_baan</t>
+    <t xml:space="preserve">BGT_WGL_ov-baan</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_WGL_overweg</t>
@@ -760,24 +761,24 @@
   <dimension ref="A1:J132"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A107" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="I10" activeCellId="0" sqref="I10:I11 I111 I127"/>
+      <selection pane="bottomLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.8542510121457"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="44.2186234817814"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.6518218623482"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.5101214574899"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="45.4736842105263"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="62.3846153846154"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="44.9028340080972"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="25.5951417004049"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="20.1093117408907"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="20.5668016194332"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="10.2834008097166"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6275510204082"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.3520408163265"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.2755102040816"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="44.8163265306122"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="61.6887755102041"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="25.2448979591837"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="19.8418367346939"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="20.25"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="10.1224489795918"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -5270,7 +5271,7 @@
   <autoFilter ref="A1:J132"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5287,17 +5288,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="I10:I11 I111 I127 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -5313,17 +5314,17 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="3" sqref="I10:I11 I111 I127 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.71255060728745"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.58673469387755"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/src/basiskaart/fixtures/wms_kaart_database.xlsx
+++ b/src/basiskaart/fixtures/wms_kaart_database.xlsx
@@ -18,6 +18,7 @@
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0_0_0" vbProcedure="false">Blad1!$A$1:$J$132</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -73,7 +74,7 @@
     <t xml:space="preserve">punt</t>
   </si>
   <si>
-    <t xml:space="preserve">identificatie_lokaalid, bgt_type, plus_type</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_type, plus_type, geometrie</t>
   </si>
   <si>
     <t xml:space="preserve">BGTPLUS_BAK_afval_apart_plaats</t>
@@ -247,7 +248,7 @@
     <t xml:space="preserve">terreindeel</t>
   </si>
   <si>
-    <t xml:space="preserve">identificatie_lokaalid, bgt_fysiekvoorkomen, plus_fysiekvoorkomen</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_fysiekvoorkomen, plus_fysiekvoorkomen, geometrie</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_BTRN_bouwland</t>
@@ -379,7 +380,7 @@
     <t xml:space="preserve">wegdeel</t>
   </si>
   <si>
-    <t xml:space="preserve">identificatie_lokaalid, bgt_functie, plus_functie</t>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_functie, plus_functie, geometrie</t>
   </si>
   <si>
     <t xml:space="preserve">BGT_OWGL_transitie</t>
@@ -760,25 +761,25 @@
   </sheetPr>
   <dimension ref="A1:J132"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B120" activeCellId="0" sqref="B120"/>
+      <selection pane="topLeft" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="F132" activeCellId="0" sqref="F132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.6275510204082"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.7397959183673"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="23.3520408163265"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.2755102040816"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="44.8163265306122"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="61.6887755102041"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="44.2755102040816"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="25.2448979591837"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="19.8418367346939"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="20.25"/>
-    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="10.1224489795918"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="18.3571428571429"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="43.1989795918367"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="3" width="22.9489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="3" width="22.0051020408163"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="3" width="44.2755102040816"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="4" width="61.015306122449"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="5" width="43.7397959183673"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="6" width="24.9744897959184"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="7" width="19.5714285714286"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="7" width="19.9795918367347"/>
+    <col collapsed="false" hidden="false" max="1025" min="11" style="7" width="9.98979591836735"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3567,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="1" t="s">
         <v>10</v>
       </c>
@@ -5199,7 +5200,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
@@ -5293,7 +5294,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -5319,7 +5320,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.58673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="9.44897959183673"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/src/basiskaart/fixtures/wms_kaart_database.xlsx
+++ b/src/basiskaart/fixtures/wms_kaart_database.xlsx
@@ -11,8 +11,8 @@
     <sheet name="Blad1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$1:$J$180</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">Blad1!$A$1:$J$180</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">Blad1!$A$1:$J$180</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="205">
   <si>
     <t xml:space="preserve">SCHEMA/SERVICE</t>
   </si>
@@ -383,6 +383,9 @@
     <t xml:space="preserve">BGT_PND_pand</t>
   </si>
   <si>
+    <t xml:space="preserve">identificatie_lokaalid, bgt_status, plus_status</t>
+  </si>
+  <si>
     <t xml:space="preserve">BGT_SDG_damwand</t>
   </si>
   <si>
@@ -632,7 +635,7 @@
     <t xml:space="preserve">CFT_Onderbouw</t>
   </si>
   <si>
-    <t xml:space="preserve">guid</t>
+    <t xml:space="preserve">guid, null, null</t>
   </si>
   <si>
     <t xml:space="preserve">CFT_Overbouw</t>
@@ -1096,10 +1099,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -1107,23 +1106,19 @@
   </sheetPr>
   <dimension ref="A1:J180"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A66" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F91" activeCellId="0" sqref="F91"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C157" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F179" activeCellId="0" sqref="F179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="3" width="20.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="3" width="19.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="39.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="79.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="39.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="22.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="7" width="17.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="7" width="18.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="7" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="3" style="3" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="4" width="91.18"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="5" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="6" width="46.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="7" width="46.97"/>
   </cols>
   <sheetData>
     <row r="1" s="14" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3522,7 +3517,7 @@
         <v>terreindeel_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F71" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G71" s="5" t="str">
         <f aca="false">C71</f>
@@ -3624,7 +3619,7 @@
         <v>terreindeel_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G74" s="5" t="str">
         <f aca="false">C74</f>
@@ -3776,7 +3771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="1" t="s">
         <v>10</v>
       </c>
@@ -3810,7 +3805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="1" t="s">
         <v>10</v>
       </c>
@@ -4270,7 +4265,7 @@
         <v>terreindeel_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>71</v>
+        <v>14</v>
       </c>
       <c r="G93" s="5" t="str">
         <f aca="false">C93</f>
@@ -4440,7 +4435,7 @@
         <v>gebouw_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>14</v>
+        <v>119</v>
       </c>
       <c r="G98" s="5" t="str">
         <f aca="false">C98</f>
@@ -4461,7 +4456,7 @@
         <v>10</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>12</v>
@@ -4495,7 +4490,7 @@
         <v>10</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C100" s="3" t="s">
         <v>12</v>
@@ -4529,7 +4524,7 @@
         <v>10</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C101" s="3" t="s">
         <v>12</v>
@@ -4563,7 +4558,7 @@
         <v>10</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>12</v>
@@ -4597,7 +4592,7 @@
         <v>10</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>12</v>
@@ -4631,7 +4626,7 @@
         <v>10</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C104" s="3" t="s">
         <v>12</v>
@@ -4665,7 +4660,7 @@
         <v>10</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>12</v>
@@ -4699,7 +4694,7 @@
         <v>10</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>12</v>
@@ -4733,7 +4728,7 @@
         <v>10</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C107" s="3" t="s">
         <v>12</v>
@@ -4767,10 +4762,10 @@
         <v>10</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>26</v>
@@ -4780,14 +4775,14 @@
         <v>spoor_lijn&lt;hoogteligging&gt;</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G108" s="5" t="str">
         <f aca="false">C108</f>
         <v>spoor</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I108" s="7" t="n">
         <v>-1</v>
@@ -4801,10 +4796,10 @@
         <v>10</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>26</v>
@@ -4814,14 +4809,14 @@
         <v>spoor_lijn&lt;hoogteligging&gt;</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G109" s="5" t="str">
         <f aca="false">C109</f>
         <v>spoor</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I109" s="7" t="n">
         <v>-1</v>
@@ -4835,10 +4830,10 @@
         <v>10</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>26</v>
@@ -4848,14 +4843,14 @@
         <v>spoor_lijn&lt;hoogteligging&gt;</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G110" s="5" t="str">
         <f aca="false">C110</f>
         <v>spoor</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="I110" s="7" t="n">
         <v>-2</v>
@@ -4869,7 +4864,7 @@
         <v>10</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C111" s="3" t="s">
         <v>25</v>
@@ -4903,7 +4898,7 @@
         <v>10</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C112" s="3" t="s">
         <v>25</v>
@@ -4937,7 +4932,7 @@
         <v>10</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C113" s="3" t="s">
         <v>25</v>
@@ -4971,7 +4966,7 @@
         <v>10</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C114" s="3" t="s">
         <v>25</v>
@@ -5005,7 +5000,7 @@
         <v>10</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>114</v>
@@ -5039,7 +5034,7 @@
         <v>10</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>114</v>
@@ -5073,7 +5068,7 @@
         <v>10</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C117" s="3" t="s">
         <v>114</v>
@@ -5107,7 +5102,7 @@
         <v>10</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>114</v>
@@ -5141,7 +5136,7 @@
         <v>10</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>114</v>
@@ -5175,7 +5170,7 @@
         <v>10</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C120" s="3" t="s">
         <v>114</v>
@@ -5209,7 +5204,7 @@
         <v>10</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>114</v>
@@ -5243,7 +5238,7 @@
         <v>10</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>114</v>
@@ -5277,7 +5272,7 @@
         <v>10</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C123" s="3" t="s">
         <v>114</v>
@@ -5311,7 +5306,7 @@
         <v>10</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>114</v>
@@ -5345,7 +5340,7 @@
         <v>10</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>114</v>
@@ -5379,7 +5374,7 @@
         <v>10</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>70</v>
@@ -5413,7 +5408,7 @@
         <v>10</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>114</v>
@@ -5447,7 +5442,7 @@
         <v>10</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C128" s="3" t="s">
         <v>114</v>
@@ -5481,7 +5476,7 @@
         <v>10</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C129" s="3" t="s">
         <v>114</v>
@@ -5515,7 +5510,7 @@
         <v>10</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C130" s="3" t="s">
         <v>114</v>
@@ -5549,7 +5544,7 @@
         <v>10</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C131" s="3" t="s">
         <v>114</v>
@@ -5583,7 +5578,7 @@
         <v>10</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>12</v>
@@ -5610,7 +5605,7 @@
         <v>10</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C133" s="3" t="s">
         <v>12</v>
@@ -5637,7 +5632,7 @@
         <v>10</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>12</v>
@@ -5664,7 +5659,7 @@
         <v>10</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>12</v>
@@ -5691,7 +5686,7 @@
         <v>10</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C136" s="3" t="s">
         <v>12</v>
@@ -5718,7 +5713,7 @@
         <v>10</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>12</v>
@@ -5745,7 +5740,7 @@
         <v>10</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C138" s="3" t="s">
         <v>12</v>
@@ -5772,7 +5767,7 @@
         <v>10</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>12</v>
@@ -5799,7 +5794,7 @@
         <v>10</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C140" s="3" t="s">
         <v>12</v>
@@ -5826,7 +5821,7 @@
         <v>10</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>12</v>
@@ -5853,7 +5848,7 @@
         <v>10</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>12</v>
@@ -5880,7 +5875,7 @@
         <v>10</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>12</v>
@@ -5907,7 +5902,7 @@
         <v>10</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>12</v>
@@ -5934,7 +5929,7 @@
         <v>10</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>12</v>
@@ -5961,7 +5956,7 @@
         <v>10</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C146" s="3" t="s">
         <v>12</v>
@@ -5988,7 +5983,7 @@
         <v>10</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>12</v>
@@ -6015,7 +6010,7 @@
         <v>10</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C148" s="3" t="s">
         <v>12</v>
@@ -6042,7 +6037,7 @@
         <v>10</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>12</v>
@@ -6069,7 +6064,7 @@
         <v>10</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>12</v>
@@ -6096,7 +6091,7 @@
         <v>10</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C151" s="3" t="s">
         <v>12</v>
@@ -6123,7 +6118,7 @@
         <v>10</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C152" s="3" t="s">
         <v>12</v>
@@ -6150,7 +6145,7 @@
         <v>10</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C153" s="3" t="s">
         <v>12</v>
@@ -6177,7 +6172,7 @@
         <v>10</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C154" s="3" t="s">
         <v>12</v>
@@ -6204,7 +6199,7 @@
         <v>10</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C155" s="3" t="s">
         <v>12</v>
@@ -6231,7 +6226,7 @@
         <v>10</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>12</v>
@@ -6258,7 +6253,7 @@
         <v>10</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>12</v>
@@ -6285,7 +6280,7 @@
         <v>10</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C158" s="3" t="s">
         <v>12</v>
@@ -6312,7 +6307,7 @@
         <v>10</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>12</v>
@@ -6339,7 +6334,7 @@
         <v>10</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C160" s="3" t="s">
         <v>12</v>
@@ -6366,7 +6361,7 @@
         <v>10</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>12</v>
@@ -6393,7 +6388,7 @@
         <v>10</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>12</v>
@@ -6420,7 +6415,7 @@
         <v>10</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>12</v>
@@ -6447,7 +6442,7 @@
         <v>10</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C164" s="3" t="s">
         <v>12</v>
@@ -6474,7 +6469,7 @@
         <v>10</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>12</v>
@@ -6501,7 +6496,7 @@
         <v>10</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C166" s="3" t="s">
         <v>12</v>
@@ -6528,7 +6523,7 @@
         <v>10</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>12</v>
@@ -6555,7 +6550,7 @@
         <v>10</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C168" s="3" t="s">
         <v>12</v>
@@ -6582,7 +6577,7 @@
         <v>10</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>12</v>
@@ -6609,7 +6604,7 @@
         <v>10</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C170" s="3" t="s">
         <v>12</v>
@@ -6636,7 +6631,7 @@
         <v>10</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>12</v>
@@ -6663,7 +6658,7 @@
         <v>10</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C172" s="3" t="s">
         <v>12</v>
@@ -6690,7 +6685,7 @@
         <v>10</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>12</v>
@@ -6717,7 +6712,7 @@
         <v>10</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C174" s="3" t="s">
         <v>12</v>
@@ -6744,7 +6739,7 @@
         <v>10</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C175" s="3" t="s">
         <v>12</v>
@@ -6771,7 +6766,7 @@
         <v>10</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C176" s="3" t="s">
         <v>12</v>
@@ -6798,7 +6793,7 @@
         <v>10</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C177" s="3" t="s">
         <v>70</v>
@@ -6825,7 +6820,7 @@
         <v>10</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C178" s="3" t="s">
         <v>70</v>
@@ -6852,7 +6847,7 @@
         <v>10</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C179" s="3" t="s">
         <v>17</v>
@@ -6865,7 +6860,7 @@
         <v>gebouw_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>17</v>
@@ -6879,7 +6874,7 @@
         <v>10</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C180" s="3" t="s">
         <v>17</v>
@@ -6892,7 +6887,7 @@
         <v>gebouw_vlak&lt;hoogteligging&gt;</v>
       </c>
       <c r="F180" s="4" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>17</v>
@@ -6902,7 +6897,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J180"/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -6910,6 +6904,5 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>